--- a/biology/Histoire de la zoologie et de la botanique/Ignaz_Rudolph_Schiner/Ignaz_Rudolph_Schiner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ignaz_Rudolph_Schiner/Ignaz_Rudolph_Schiner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ignaz Rudolph Schiner est un entomologiste autrichien, né le 17 avril 1813 à Fronsburg et mort le 6 juillet 1873 à Vienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est secrétaire dans un ministère de Vienne. Sa principale publication est la Fauna Austriaca. Die Fliegen (Diptera). Nach der analytischen Methode bearbeitet. C’est lui qui supervise l’édition du Catalogus systematicus dipterorum Europae. W.M.W. Impensis: Societatis Zoologico-Botanicae (1864). Ses collections sont conservées au 
 Muséum de Vienne.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 21 juin 2006).</t>
         </is>
